--- a/Assets/Resources/story/3.xlsx
+++ b/Assets/Resources/story/3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>CharacterImg（立绘）</t>
+  </si>
+  <si>
+    <t>LastBGImg(最后背景图片）</t>
+  </si>
+  <si>
+    <t>LastBGMusic（最后背景音乐）</t>
   </si>
   <si>
     <t>Annie</t>
@@ -86,9 +92,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -239,12 +253,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -559,55 +579,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,76 +639,82 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,10 +1027,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1022,84 +1045,100 @@
     <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" ht="104.4" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2"/>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3"/>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <f>IF(E2&lt;&gt;"",E2,J2)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>IF(F2&lt;&gt;"",F2,K2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
